--- a/BetterNames-v2-Weapons.xlsx
+++ b/BetterNames-v2-Weapons.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA\Public\Play\ComputerGames\MyGames\Morrowind\Plugins-Archive\MyPlugins\Better-Names\Better-Names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA\Public\Play\ComputerGames\MyGames\Morrowind\Plugins-Archive\MyPlugins\Better-Names\Better-Names-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons-BASE" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Json" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weapons-BASE'!$A$1:$F$636</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Weapons-MODS'!$A$1:$G$1317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weapons-BASE'!$A$1:$J$636</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Weapons-MODS'!$A$1:$G$1334</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11780" uniqueCount="3290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="3324">
   <si>
     <t>WEAP</t>
   </si>
@@ -9896,6 +9896,108 @@
   </si>
   <si>
     <t>Star of Dire ShockSphere</t>
+  </si>
+  <si>
+    <t>Dwemer Crossbow</t>
+  </si>
+  <si>
+    <t>wh_crossbow_silver</t>
+  </si>
+  <si>
+    <t>Silver Crossbow</t>
+  </si>
+  <si>
+    <t>wh_crossbow_ebony</t>
+  </si>
+  <si>
+    <t>Ebony Crossbow</t>
+  </si>
+  <si>
+    <t>wh_crossbow_daedric</t>
+  </si>
+  <si>
+    <t>Daedric Crossbow</t>
+  </si>
+  <si>
+    <t>wh_crossbow_bone</t>
+  </si>
+  <si>
+    <t>Bonemold Crossbow</t>
+  </si>
+  <si>
+    <t>wh_crossbow_iron</t>
+  </si>
+  <si>
+    <t>Iron Crossbow</t>
+  </si>
+  <si>
+    <t>wh_daedric_bolt</t>
+  </si>
+  <si>
+    <t>Daedric Bolt</t>
+  </si>
+  <si>
+    <t>wh_crossbow_glass</t>
+  </si>
+  <si>
+    <t>Glass Crossbow</t>
+  </si>
+  <si>
+    <t>wh_glass_bolt</t>
+  </si>
+  <si>
+    <t>wh_crossbow_orc</t>
+  </si>
+  <si>
+    <t>Orcish Crossbow</t>
+  </si>
+  <si>
+    <t>wh_ebony_bolt</t>
+  </si>
+  <si>
+    <t>wh_dwemer_bolt</t>
+  </si>
+  <si>
+    <t>Dwemer Bolt</t>
+  </si>
+  <si>
+    <t>orcish trapper bolt</t>
+  </si>
+  <si>
+    <t>Uftum Trapper Bolt</t>
+  </si>
+  <si>
+    <t>Crossbow Silver</t>
+  </si>
+  <si>
+    <t>Crossbow Ebony</t>
+  </si>
+  <si>
+    <t>Crossbow Daedric</t>
+  </si>
+  <si>
+    <t>Crossbow Bonemold</t>
+  </si>
+  <si>
+    <t>Crossbow Iron</t>
+  </si>
+  <si>
+    <t>Crossbow Glass</t>
+  </si>
+  <si>
+    <t>Crossbow Orcish</t>
+  </si>
+  <si>
+    <t>Replacing Existing?</t>
+  </si>
+  <si>
+    <t>Bolt Daedric</t>
+  </si>
+  <si>
+    <t>Bolt Dwemer</t>
+  </si>
+  <si>
+    <t>Bolt Uftum Trapper</t>
   </si>
 </sst>
 </file>
@@ -10038,7 +10140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10230,6 +10332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -10391,11 +10499,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10719,7 +10828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11432,7 +11541,7 @@
         <f>VLOOKUP(B22,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Steel War Axe</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DIFF</v>
       </c>
@@ -16379,7 +16488,7 @@
         <f>VLOOKUP(B178,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Silver Stormsword</v>
       </c>
-      <c r="I178" t="str">
+      <c r="I178" s="4" t="str">
         <f t="shared" si="5"/>
         <v>DIFF</v>
       </c>
@@ -18636,7 +18745,7 @@
         <f>VLOOKUP(B249,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Orc Warhammer</v>
       </c>
-      <c r="I249" t="str">
+      <c r="I249" s="4" t="str">
         <f t="shared" si="7"/>
         <v>DIFF</v>
       </c>
@@ -20704,7 +20813,7 @@
         <f>VLOOKUP(B314,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Dwemer Jinksword</v>
       </c>
-      <c r="I314" t="str">
+      <c r="I314" s="4" t="str">
         <f t="shared" si="9"/>
         <v>DIFF</v>
       </c>
@@ -21408,7 +21517,7 @@
         <f>VLOOKUP(B336,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Silver Flameskewer</v>
       </c>
-      <c r="I336" t="str">
+      <c r="I336" s="4" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -21568,7 +21677,7 @@
         <f>VLOOKUP(B341,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Steel Longsword of Hewing</v>
       </c>
-      <c r="I341" t="str">
+      <c r="I341" s="4" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -23044,7 +23153,7 @@
         <f>VLOOKUP(B389,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Anarenen's Devil Tanto</v>
       </c>
-      <c r="I389" t="str">
+      <c r="I389" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DIFF</v>
       </c>
@@ -23817,7 +23926,7 @@
         <f>VLOOKUP(B415,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Erud-Dan's Spear</v>
       </c>
-      <c r="I415" t="str">
+      <c r="I415" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DIFF</v>
       </c>
@@ -24650,7 +24759,7 @@
         <f>VLOOKUP(B443,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Steel Spider Sword</v>
       </c>
-      <c r="I443" t="str">
+      <c r="I443" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DIFF</v>
       </c>
@@ -24746,7 +24855,7 @@
         <f>VLOOKUP(B446,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Sword of Agustas</v>
       </c>
-      <c r="I446" t="str">
+      <c r="I446" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DIFF</v>
       </c>
@@ -25083,7 +25192,7 @@
         <f>VLOOKUP(B457,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Dart of Judgment</v>
       </c>
-      <c r="I457" t="str">
+      <c r="I457" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DIFF</v>
       </c>
@@ -25144,7 +25253,7 @@
         <f>VLOOKUP(B459,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Dwemer Pneuma-Trap</v>
       </c>
-      <c r="I459" t="str">
+      <c r="I459" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DIFF</v>
       </c>
@@ -26699,7 +26808,7 @@
         <f>VLOOKUP(B510,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Admantium Axe</v>
       </c>
-      <c r="I510" t="str">
+      <c r="I510" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DIFF</v>
       </c>
@@ -27844,7 +27953,7 @@
         <f>VLOOKUP(B547,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Elberoth's Saber</v>
       </c>
-      <c r="I547" t="str">
+      <c r="I547" s="4" t="str">
         <f>IF(F547&lt;&gt;H547,"DIFF","")</f>
         <v>DIFF</v>
       </c>
@@ -28478,7 +28587,7 @@
         <f>VLOOKUP(B567,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Bloodskal Blade</v>
       </c>
-      <c r="I567" t="str">
+      <c r="I567" s="4" t="str">
         <f t="shared" si="17"/>
         <v>DIFF</v>
       </c>
@@ -29154,7 +29263,7 @@
         <f>VLOOKUP(B589,'Weapons-MODS'!B:C,2,FALSE)</f>
         <v>Icefire Longsword</v>
       </c>
-      <c r="I589" t="str">
+      <c r="I589" s="4" t="str">
         <f t="shared" si="19"/>
         <v>DIFF</v>
       </c>
@@ -30643,7 +30752,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F636"/>
+  <autoFilter ref="A1:J636"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31299,10 +31408,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G1317"/>
+  <dimension ref="A1:H1334"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1306" workbookViewId="0">
+      <selection activeCell="A1335" sqref="A1335"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31337,7 +31447,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -31354,7 +31464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -31371,7 +31481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -31388,7 +31498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -31405,7 +31515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -31422,7 +31532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -31439,7 +31549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -31456,7 +31566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -31473,7 +31583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -31490,7 +31600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -31507,7 +31617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -31524,7 +31634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -31541,7 +31651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -31558,7 +31668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -31575,7 +31685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -31592,7 +31702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -31609,7 +31719,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -31626,7 +31736,7 @@
         <v>15750</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -31643,7 +31753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -31660,7 +31770,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -31677,7 +31787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -31694,7 +31804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -31711,7 +31821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -31728,7 +31838,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -31745,7 +31855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -31762,7 +31872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -31779,7 +31889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -31796,7 +31906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -31813,7 +31923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -31830,7 +31940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -31847,7 +31957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -31864,7 +31974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -31881,7 +31991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -31898,7 +32008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -31915,7 +32025,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -31932,7 +32042,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -31949,7 +32059,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -31966,7 +32076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -31983,7 +32093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -32000,7 +32110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -32017,7 +32127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -32034,7 +32144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -32051,7 +32161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -32068,7 +32178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -32085,7 +32195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -32102,7 +32212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -32119,7 +32229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -32136,7 +32246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -32153,7 +32263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -32170,7 +32280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -32187,7 +32297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -32204,7 +32314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -32221,7 +32331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -32238,7 +32348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -32255,7 +32365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -32289,7 +32399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -32306,7 +32416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -32323,7 +32433,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -32340,7 +32450,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -32357,7 +32467,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -32374,7 +32484,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -32391,7 +32501,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -32408,7 +32518,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -32425,7 +32535,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -32442,7 +32552,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -32459,7 +32569,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -32476,7 +32586,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -32493,7 +32603,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -32510,7 +32620,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -32527,7 +32637,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -32544,7 +32654,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -32561,7 +32671,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -32578,7 +32688,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -32595,7 +32705,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -32612,7 +32722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -32629,7 +32739,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -32646,7 +32756,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -32663,7 +32773,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -32680,7 +32790,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -32697,7 +32807,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -32714,7 +32824,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -32731,7 +32841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -32748,7 +32858,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -32765,7 +32875,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -32782,7 +32892,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -32799,7 +32909,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -32816,7 +32926,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -32833,7 +32943,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -32850,7 +32960,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -32867,7 +32977,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -32884,7 +32994,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -32901,7 +33011,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -32918,7 +33028,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -32935,7 +33045,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -32952,7 +33062,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -32969,7 +33079,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -32986,7 +33096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -33003,7 +33113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -33020,7 +33130,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -33037,7 +33147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -33054,7 +33164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -33071,7 +33181,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -33088,7 +33198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -33105,7 +33215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -33122,7 +33232,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -33139,7 +33249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -33156,7 +33266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -33173,7 +33283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -33190,7 +33300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -33207,7 +33317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -33224,7 +33334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -33241,7 +33351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -33258,7 +33368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -33275,7 +33385,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -33292,7 +33402,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -33309,7 +33419,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -33326,7 +33436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -33343,7 +33453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -33360,7 +33470,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -33377,7 +33487,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -33394,7 +33504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -33411,7 +33521,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -33428,7 +33538,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -33445,7 +33555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -33462,7 +33572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -33479,7 +33589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -33496,7 +33606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -33513,7 +33623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -33530,7 +33640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -33547,7 +33657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -33564,7 +33674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -33581,7 +33691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -33598,7 +33708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -33615,7 +33725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -33632,7 +33742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -33649,7 +33759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -33666,7 +33776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -33683,7 +33793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -33700,7 +33810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -33717,7 +33827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -33734,7 +33844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -33751,7 +33861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -33768,7 +33878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -33785,7 +33895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -33802,7 +33912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -33819,7 +33929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -33836,7 +33946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -33853,7 +33963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -33870,7 +33980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -33887,7 +33997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -33904,7 +34014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -33921,7 +34031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -33938,7 +34048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -33955,7 +34065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -33972,7 +34082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -33989,7 +34099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -34006,7 +34116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -34023,7 +34133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -34040,7 +34150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -34057,7 +34167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -34074,7 +34184,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -34091,7 +34201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -34108,7 +34218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -34125,7 +34235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -34142,7 +34252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -34159,7 +34269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -34176,7 +34286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -34193,7 +34303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -34210,7 +34320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -34227,7 +34337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -34244,7 +34354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -34261,7 +34371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -34278,7 +34388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -34295,7 +34405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -34312,7 +34422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -34329,7 +34439,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -34346,7 +34456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -34363,7 +34473,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -34380,7 +34490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -34397,7 +34507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -34414,7 +34524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -34431,7 +34541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -34448,7 +34558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -34465,7 +34575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -34482,7 +34592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -34499,7 +34609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -34516,7 +34626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -34533,7 +34643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -34550,7 +34660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -34567,7 +34677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -34584,7 +34694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -34601,7 +34711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -34618,7 +34728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -34635,7 +34745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -34652,7 +34762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -34669,7 +34779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -34686,7 +34796,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -34703,7 +34813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -34720,7 +34830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -34737,7 +34847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -34754,7 +34864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -34771,7 +34881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -34788,7 +34898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -34805,7 +34915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -34822,7 +34932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -34839,7 +34949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -34856,7 +34966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -34873,7 +34983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -34890,7 +35000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -34907,7 +35017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -34924,7 +35034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -34941,7 +35051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -34958,7 +35068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -34975,7 +35085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -34992,7 +35102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -35009,7 +35119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -35026,7 +35136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -35043,7 +35153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -35060,7 +35170,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -35077,7 +35187,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -35094,7 +35204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -35111,7 +35221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -35128,7 +35238,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -35145,7 +35255,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -35162,7 +35272,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -35179,7 +35289,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -35196,7 +35306,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -35213,7 +35323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -35230,7 +35340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -35247,7 +35357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -35264,7 +35374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -35281,7 +35391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -35298,7 +35408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -35315,7 +35425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -35332,7 +35442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -35349,7 +35459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -35366,7 +35476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -35383,7 +35493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -35400,7 +35510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -35417,7 +35527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -35434,7 +35544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -35451,7 +35561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -35468,7 +35578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -35485,7 +35595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -35502,7 +35612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -35519,7 +35629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -35536,7 +35646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -35553,7 +35663,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -35570,7 +35680,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -35587,7 +35697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -35604,7 +35714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -35621,7 +35731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -35638,7 +35748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -35655,7 +35765,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -35672,7 +35782,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -35689,7 +35799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -35706,7 +35816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -35723,7 +35833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -35740,7 +35850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -35757,7 +35867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -35774,7 +35884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -35791,7 +35901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -35808,7 +35918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -35825,7 +35935,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -35842,7 +35952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -35859,7 +35969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -35876,7 +35986,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -35893,7 +36003,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -35910,7 +36020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -35927,7 +36037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -35944,7 +36054,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -35961,7 +36071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -35978,7 +36088,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -35995,7 +36105,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -36012,7 +36122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -36029,7 +36139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -36046,7 +36156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -36063,7 +36173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -36080,7 +36190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -36097,7 +36207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -36114,7 +36224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -36131,7 +36241,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -36148,7 +36258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -36165,7 +36275,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -36182,7 +36292,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -36199,7 +36309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -36216,7 +36326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -36233,7 +36343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -36250,7 +36360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -36267,7 +36377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -36284,7 +36394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -36301,7 +36411,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -36318,7 +36428,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -36335,7 +36445,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -36352,7 +36462,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -36369,7 +36479,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -36386,7 +36496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -36403,7 +36513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -36420,7 +36530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -36437,7 +36547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -36454,7 +36564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -36471,7 +36581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -36488,7 +36598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -36505,7 +36615,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -36522,7 +36632,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -36539,7 +36649,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -36556,7 +36666,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -36573,7 +36683,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -36590,7 +36700,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -36607,7 +36717,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -36624,7 +36734,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -36641,7 +36751,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -36658,7 +36768,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -36675,7 +36785,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -36692,7 +36802,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -36709,7 +36819,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -36726,7 +36836,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -36743,7 +36853,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -36760,7 +36870,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -36777,7 +36887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -36794,7 +36904,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -36811,7 +36921,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -36828,7 +36938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -36845,7 +36955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -36862,7 +36972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -36879,7 +36989,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -36896,7 +37006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -36913,7 +37023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -36930,7 +37040,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -36947,7 +37057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -36964,7 +37074,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -36981,7 +37091,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -36998,7 +37108,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -37015,7 +37125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -37032,7 +37142,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -37049,7 +37159,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -37066,7 +37176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -37083,7 +37193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>0</v>
       </c>
@@ -37100,7 +37210,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -37117,7 +37227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -37134,7 +37244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>0</v>
       </c>
@@ -37151,7 +37261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>0</v>
       </c>
@@ -37168,7 +37278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -37185,7 +37295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>0</v>
       </c>
@@ -37202,7 +37312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -37219,7 +37329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>0</v>
       </c>
@@ -37236,7 +37346,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -37253,7 +37363,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>0</v>
       </c>
@@ -37270,7 +37380,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>0</v>
       </c>
@@ -37287,7 +37397,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>0</v>
       </c>
@@ -37304,7 +37414,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -37321,7 +37431,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>0</v>
       </c>
@@ -37338,7 +37448,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>0</v>
       </c>
@@ -37355,7 +37465,7 @@
         <v>21075</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>0</v>
       </c>
@@ -37372,7 +37482,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -37389,7 +37499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>0</v>
       </c>
@@ -37406,7 +37516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>0</v>
       </c>
@@ -37423,7 +37533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>0</v>
       </c>
@@ -37440,7 +37550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -37457,7 +37567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>0</v>
       </c>
@@ -37474,7 +37584,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>0</v>
       </c>
@@ -37491,7 +37601,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>0</v>
       </c>
@@ -37508,7 +37618,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -37525,7 +37635,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>0</v>
       </c>
@@ -37542,7 +37652,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>0</v>
       </c>
@@ -37559,7 +37669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>0</v>
       </c>
@@ -37576,7 +37686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -37593,7 +37703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>0</v>
       </c>
@@ -37610,7 +37720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>0</v>
       </c>
@@ -37627,7 +37737,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>0</v>
       </c>
@@ -37644,7 +37754,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -37661,7 +37771,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>0</v>
       </c>
@@ -37678,7 +37788,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>0</v>
       </c>
@@ -37695,7 +37805,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>0</v>
       </c>
@@ -37712,7 +37822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -37729,7 +37839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>0</v>
       </c>
@@ -37746,7 +37856,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>0</v>
       </c>
@@ -37763,7 +37873,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>0</v>
       </c>
@@ -37780,7 +37890,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -37797,7 +37907,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>0</v>
       </c>
@@ -37814,7 +37924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>0</v>
       </c>
@@ -37831,7 +37941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>0</v>
       </c>
@@ -37848,7 +37958,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -37865,7 +37975,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -37882,7 +37992,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>0</v>
       </c>
@@ -37899,7 +38009,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>0</v>
       </c>
@@ -37916,7 +38026,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -37933,7 +38043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>0</v>
       </c>
@@ -37950,7 +38060,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>0</v>
       </c>
@@ -37967,7 +38077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>0</v>
       </c>
@@ -37984,7 +38094,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>0</v>
       </c>
@@ -38001,7 +38111,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>0</v>
       </c>
@@ -38018,7 +38128,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>0</v>
       </c>
@@ -38035,7 +38145,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>0</v>
       </c>
@@ -38052,7 +38162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>0</v>
       </c>
@@ -38069,7 +38179,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>0</v>
       </c>
@@ -38086,7 +38196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>0</v>
       </c>
@@ -38103,7 +38213,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>0</v>
       </c>
@@ -38120,7 +38230,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -38137,7 +38247,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -38154,7 +38264,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>0</v>
       </c>
@@ -38171,7 +38281,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>0</v>
       </c>
@@ -38188,7 +38298,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -38205,7 +38315,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -38222,7 +38332,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>0</v>
       </c>
@@ -38239,7 +38349,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -38256,7 +38366,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -38273,7 +38383,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -38290,7 +38400,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -38307,7 +38417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -38324,7 +38434,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -38341,7 +38451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -38358,7 +38468,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -38375,7 +38485,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>0</v>
       </c>
@@ -38392,7 +38502,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -38409,7 +38519,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>0</v>
       </c>
@@ -38426,7 +38536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>0</v>
       </c>
@@ -38443,7 +38553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -38460,7 +38570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>0</v>
       </c>
@@ -38477,7 +38587,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>0</v>
       </c>
@@ -38494,7 +38604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>0</v>
       </c>
@@ -38511,7 +38621,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>0</v>
       </c>
@@ -38528,7 +38638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -38545,7 +38655,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -38562,7 +38672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>0</v>
       </c>
@@ -38579,7 +38689,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>0</v>
       </c>
@@ -38596,7 +38706,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>0</v>
       </c>
@@ -38613,7 +38723,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>0</v>
       </c>
@@ -38630,7 +38740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>0</v>
       </c>
@@ -38647,7 +38757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>0</v>
       </c>
@@ -38664,7 +38774,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>0</v>
       </c>
@@ -38681,7 +38791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>0</v>
       </c>
@@ -38698,7 +38808,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>0</v>
       </c>
@@ -38715,7 +38825,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>0</v>
       </c>
@@ -38732,7 +38842,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>0</v>
       </c>
@@ -38749,7 +38859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>0</v>
       </c>
@@ -38766,7 +38876,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>0</v>
       </c>
@@ -38783,7 +38893,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>0</v>
       </c>
@@ -38800,7 +38910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>0</v>
       </c>
@@ -38817,7 +38927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>0</v>
       </c>
@@ -38834,7 +38944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>0</v>
       </c>
@@ -38851,7 +38961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>0</v>
       </c>
@@ -38868,7 +38978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>0</v>
       </c>
@@ -38885,7 +38995,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>0</v>
       </c>
@@ -38902,7 +39012,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>0</v>
       </c>
@@ -38919,7 +39029,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>0</v>
       </c>
@@ -38936,7 +39046,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>0</v>
       </c>
@@ -38953,7 +39063,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>0</v>
       </c>
@@ -38970,7 +39080,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>0</v>
       </c>
@@ -38987,7 +39097,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>0</v>
       </c>
@@ -39004,7 +39114,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>0</v>
       </c>
@@ -39021,7 +39131,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>0</v>
       </c>
@@ -39038,7 +39148,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>0</v>
       </c>
@@ -39055,7 +39165,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>0</v>
       </c>
@@ -39072,7 +39182,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>0</v>
       </c>
@@ -39089,7 +39199,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>0</v>
       </c>
@@ -39106,7 +39216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>0</v>
       </c>
@@ -39123,7 +39233,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>0</v>
       </c>
@@ -39140,7 +39250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -39157,7 +39267,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>0</v>
       </c>
@@ -39174,7 +39284,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>0</v>
       </c>
@@ -39191,7 +39301,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>0</v>
       </c>
@@ -39208,7 +39318,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>0</v>
       </c>
@@ -39225,7 +39335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>0</v>
       </c>
@@ -39242,7 +39352,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>0</v>
       </c>
@@ -39259,7 +39369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>0</v>
       </c>
@@ -39276,7 +39386,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>0</v>
       </c>
@@ -39293,7 +39403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>0</v>
       </c>
@@ -39310,7 +39420,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>0</v>
       </c>
@@ -39327,7 +39437,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>0</v>
       </c>
@@ -39344,7 +39454,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>0</v>
       </c>
@@ -39361,7 +39471,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>0</v>
       </c>
@@ -39378,7 +39488,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>0</v>
       </c>
@@ -39395,7 +39505,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>0</v>
       </c>
@@ -39412,7 +39522,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>0</v>
       </c>
@@ -39429,7 +39539,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>0</v>
       </c>
@@ -39446,7 +39556,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>0</v>
       </c>
@@ -39463,7 +39573,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>0</v>
       </c>
@@ -39480,7 +39590,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>0</v>
       </c>
@@ -39497,7 +39607,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>0</v>
       </c>
@@ -39514,7 +39624,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>0</v>
       </c>
@@ -39531,7 +39641,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>0</v>
       </c>
@@ -39548,7 +39658,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>0</v>
       </c>
@@ -39565,7 +39675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>0</v>
       </c>
@@ -39582,7 +39692,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>0</v>
       </c>
@@ -39599,7 +39709,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>0</v>
       </c>
@@ -39616,7 +39726,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>0</v>
       </c>
@@ -39633,7 +39743,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>0</v>
       </c>
@@ -39650,7 +39760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>0</v>
       </c>
@@ -39667,7 +39777,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>0</v>
       </c>
@@ -39684,7 +39794,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>0</v>
       </c>
@@ -39701,7 +39811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>0</v>
       </c>
@@ -39718,7 +39828,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>0</v>
       </c>
@@ -39735,7 +39845,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>0</v>
       </c>
@@ -39752,7 +39862,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>0</v>
       </c>
@@ -39769,7 +39879,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>0</v>
       </c>
@@ -39786,7 +39896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>0</v>
       </c>
@@ -39803,7 +39913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>0</v>
       </c>
@@ -39820,7 +39930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>0</v>
       </c>
@@ -39837,7 +39947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>0</v>
       </c>
@@ -39854,7 +39964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>0</v>
       </c>
@@ -39871,7 +39981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>0</v>
       </c>
@@ -39888,7 +39998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>0</v>
       </c>
@@ -39905,7 +40015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>0</v>
       </c>
@@ -39922,7 +40032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>0</v>
       </c>
@@ -39939,7 +40049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>0</v>
       </c>
@@ -39956,7 +40066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>0</v>
       </c>
@@ -39973,7 +40083,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>0</v>
       </c>
@@ -39990,7 +40100,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>0</v>
       </c>
@@ -40007,7 +40117,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -40024,7 +40134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>0</v>
       </c>
@@ -40041,7 +40151,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>0</v>
       </c>
@@ -40058,7 +40168,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>0</v>
       </c>
@@ -40075,7 +40185,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>0</v>
       </c>
@@ -40092,7 +40202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>0</v>
       </c>
@@ -40109,7 +40219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>0</v>
       </c>
@@ -40126,7 +40236,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>0</v>
       </c>
@@ -40143,7 +40253,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -40160,7 +40270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>0</v>
       </c>
@@ -40177,7 +40287,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>0</v>
       </c>
@@ -40194,7 +40304,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -40211,7 +40321,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>0</v>
       </c>
@@ -40228,7 +40338,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>0</v>
       </c>
@@ -40245,7 +40355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>0</v>
       </c>
@@ -40262,7 +40372,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>0</v>
       </c>
@@ -40279,7 +40389,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>0</v>
       </c>
@@ -40296,7 +40406,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -40313,7 +40423,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -40330,7 +40440,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -40347,7 +40457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -40364,7 +40474,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -40381,7 +40491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -40398,7 +40508,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -40415,7 +40525,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -40432,7 +40542,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -40449,7 +40559,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -40466,7 +40576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -40483,7 +40593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -40500,7 +40610,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -40517,7 +40627,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -40534,7 +40644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -40551,7 +40661,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -40568,7 +40678,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -40585,7 +40695,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -40602,7 +40712,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -40619,7 +40729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -40636,7 +40746,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -40653,7 +40763,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -40670,7 +40780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -40687,7 +40797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -40704,7 +40814,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -40721,7 +40831,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -40738,7 +40848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -40755,7 +40865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -40772,7 +40882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -40789,7 +40899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -40806,7 +40916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -40823,7 +40933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>0</v>
       </c>
@@ -40840,7 +40950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>0</v>
       </c>
@@ -40857,7 +40967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>0</v>
       </c>
@@ -40874,7 +40984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>0</v>
       </c>
@@ -40891,7 +41001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>0</v>
       </c>
@@ -40908,7 +41018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>0</v>
       </c>
@@ -40925,7 +41035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>0</v>
       </c>
@@ -40942,7 +41052,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>0</v>
       </c>
@@ -40959,7 +41069,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>0</v>
       </c>
@@ -40976,7 +41086,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -40993,7 +41103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>0</v>
       </c>
@@ -41010,7 +41120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>0</v>
       </c>
@@ -41027,7 +41137,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>0</v>
       </c>
@@ -41044,7 +41154,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>0</v>
       </c>
@@ -41061,7 +41171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>0</v>
       </c>
@@ -41078,7 +41188,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>0</v>
       </c>
@@ -41095,7 +41205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>0</v>
       </c>
@@ -41112,7 +41222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>0</v>
       </c>
@@ -41129,7 +41239,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>0</v>
       </c>
@@ -41146,7 +41256,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>0</v>
       </c>
@@ -41163,7 +41273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>0</v>
       </c>
@@ -41180,7 +41290,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>0</v>
       </c>
@@ -41197,7 +41307,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>0</v>
       </c>
@@ -41214,7 +41324,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>0</v>
       </c>
@@ -41231,7 +41341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>0</v>
       </c>
@@ -41248,7 +41358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>0</v>
       </c>
@@ -41265,7 +41375,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>0</v>
       </c>
@@ -41282,7 +41392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>0</v>
       </c>
@@ -41299,7 +41409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>0</v>
       </c>
@@ -41316,7 +41426,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>0</v>
       </c>
@@ -41333,7 +41443,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>0</v>
       </c>
@@ -41350,7 +41460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>0</v>
       </c>
@@ -41367,7 +41477,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>0</v>
       </c>
@@ -41384,7 +41494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>0</v>
       </c>
@@ -41401,7 +41511,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>0</v>
       </c>
@@ -41418,7 +41528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>0</v>
       </c>
@@ -41435,7 +41545,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>0</v>
       </c>
@@ -41452,7 +41562,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>0</v>
       </c>
@@ -41469,7 +41579,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>0</v>
       </c>
@@ -51963,7 +52073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>0</v>
       </c>
@@ -51980,7 +52090,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>0</v>
       </c>
@@ -52513,7 +52623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>0</v>
       </c>
@@ -52530,7 +52640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>0</v>
       </c>
@@ -52547,7 +52657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>0</v>
       </c>
@@ -52564,7 +52674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>0</v>
       </c>
@@ -52581,7 +52691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>0</v>
       </c>
@@ -52598,7 +52708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>0</v>
       </c>
@@ -52615,7 +52725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>0</v>
       </c>
@@ -52632,7 +52742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>0</v>
       </c>
@@ -52649,7 +52759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1089" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>0</v>
       </c>
@@ -52666,7 +52776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1090" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>0</v>
       </c>
@@ -52683,7 +52793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1091" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>0</v>
       </c>
@@ -52700,7 +52810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>0</v>
       </c>
@@ -52717,7 +52827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1093" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>0</v>
       </c>
@@ -52734,7 +52844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1094" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>0</v>
       </c>
@@ -52751,7 +52861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1095" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>0</v>
       </c>
@@ -52768,7 +52878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1096" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>0</v>
       </c>
@@ -52785,7 +52895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1097" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>0</v>
       </c>
@@ -52802,7 +52912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1098" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>0</v>
       </c>
@@ -52819,7 +52929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>0</v>
       </c>
@@ -52836,7 +52946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>0</v>
       </c>
@@ -52853,7 +52963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>0</v>
       </c>
@@ -52870,7 +52980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>0</v>
       </c>
@@ -52887,7 +52997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>0</v>
       </c>
@@ -52904,7 +53014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>0</v>
       </c>
@@ -52921,7 +53031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>0</v>
       </c>
@@ -52938,7 +53048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>0</v>
       </c>
@@ -52955,7 +53065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>0</v>
       </c>
@@ -52972,7 +53082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>0</v>
       </c>
@@ -52989,7 +53099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>0</v>
       </c>
@@ -53006,7 +53116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>0</v>
       </c>
@@ -53023,7 +53133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>0</v>
       </c>
@@ -53040,7 +53150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>0</v>
       </c>
@@ -53057,7 +53167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>0</v>
       </c>
@@ -53074,7 +53184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>0</v>
       </c>
@@ -53091,7 +53201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>0</v>
       </c>
@@ -53108,7 +53218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>0</v>
       </c>
@@ -57640,7 +57750,7 @@
         <v>3181</v>
       </c>
       <c r="G1309">
-        <f t="shared" ref="G1309:G1317" si="12">LEN(F1309)</f>
+        <f t="shared" ref="G1309:G1334" si="12">LEN(F1309)</f>
         <v>18</v>
       </c>
     </row>
@@ -57713,7 +57823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
         <v>2866</v>
       </c>
@@ -57737,7 +57847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>2866</v>
       </c>
@@ -57761,7 +57871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>2866</v>
       </c>
@@ -57782,7 +57892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>2866</v>
       </c>
@@ -57806,7 +57916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
         <v>2866</v>
       </c>
@@ -57829,24 +57939,489 @@
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
+      <c r="H1317" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1318" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1318" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1318" s="1">
+        <v>160</v>
+      </c>
+      <c r="F1318" s="1"/>
+      <c r="G1318" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1318" s="1">
+        <f>VLOOKUP(B1318,B1:F1317,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1319" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1319" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1319" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F1319" s="1"/>
+      <c r="G1319" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1319" s="1">
+        <f t="shared" ref="H1319:H1334" si="13">VLOOKUP(B1319,B2:F1318,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1320" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1320" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1320" s="1">
+        <v>14</v>
+      </c>
+      <c r="F1320" s="1"/>
+      <c r="G1320" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1320" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1321" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1321" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1321" s="1"/>
+      <c r="G1321" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1321" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1322" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1322" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1322" s="1">
+        <v>16</v>
+      </c>
+      <c r="F1322" s="1"/>
+      <c r="G1322" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1322" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1323" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1323">
+        <v>300</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>3313</v>
+      </c>
+      <c r="G1323">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H1323" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1324" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1324">
+        <v>15000</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G1324">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H1324" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1325" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1325">
+        <v>45000</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G1325">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H1325" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1326">
+        <v>500</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G1326">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="H1326" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1327">
+        <v>90</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G1327">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="H1327" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1328">
+        <v>40</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G1328">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="H1328" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1329" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1329">
+        <v>34000</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G1329">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H1329" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1330" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1330">
+        <v>18</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>3048</v>
+      </c>
+      <c r="G1330">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H1330" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1331" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1331">
+        <v>2200</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G1331">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H1331" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1332" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1332">
+        <v>25</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G1332">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H1332" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1333" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1333">
+        <v>12</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G1333">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="H1333" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1334" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1334">
+        <v>16</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>3323</v>
+      </c>
+      <c r="G1334">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H1334" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1317">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MODS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1334"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D953"/>
+  <dimension ref="A1:D965"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="A954" sqref="A954:XFD954"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -71317,7 +71892,7 @@
         <v>3257</v>
       </c>
       <c r="D898" t="str">
-        <f t="shared" ref="D898:D953" si="14">"{ID="&amp;""""&amp;A898&amp;""""&amp;", name="&amp;""""&amp;C898&amp;""""&amp;"},"</f>
+        <f t="shared" ref="D898:D960" si="14">"{ID="&amp;""""&amp;A898&amp;""""&amp;", name="&amp;""""&amp;C898&amp;""""&amp;"},"</f>
         <v>{ID="dart_plume_frost_02", name="Dart Racer of Cruel Freezing"},</v>
       </c>
     </row>
@@ -72144,6 +72719,186 @@
       <c r="D953" t="str">
         <f t="shared" si="14"/>
         <v>{ID="MI_ebony staff", name="Staff Ebony"},</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B954" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C954" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D954" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_silver", name="Crossbow Silver"},</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B955" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D955" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_ebony", name="Crossbow Ebony"},</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B956" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D956" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_daedric", name="Crossbow Daedric"},</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B957" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C957" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D957" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_bone", name="Crossbow Bonemold"},</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B958" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D958" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_iron", name="Crossbow Iron"},</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B959" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D959" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_daedric_bolt", name="Bolt Daedric"},</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B960" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C960" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D960" t="str">
+        <f t="shared" si="14"/>
+        <v>{ID="wh_crossbow_glass", name="Crossbow Glass"},</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C961" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D961" t="str">
+        <f t="shared" ref="D961:D965" si="15">"{ID="&amp;""""&amp;A961&amp;""""&amp;", name="&amp;""""&amp;C961&amp;""""&amp;"},"</f>
+        <v>{ID="wh_glass_bolt", name="Bolt Glass"},</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B962" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C962" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D962" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="wh_crossbow_orc", name="Crossbow Orcish"},</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C963" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D963" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="wh_ebony_bolt", name="Bolt Ebony"},</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B964" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C964" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D964" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="wh_dwemer_bolt", name="Bolt Dwemer"},</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B965" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C965" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D965" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="orcish trapper bolt", name="Bolt Uftum Trapper"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2-Weapons.xlsx
+++ b/BetterNames-v2-Weapons.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="3324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12149" uniqueCount="3345">
   <si>
     <t>WEAP</t>
   </si>
@@ -9998,6 +9998,69 @@
   </si>
   <si>
     <t>Bolt Uftum Trapper</t>
+  </si>
+  <si>
+    <t>steel pike</t>
+  </si>
+  <si>
+    <t>Steel Pike</t>
+  </si>
+  <si>
+    <t>chitin pike</t>
+  </si>
+  <si>
+    <t>Chitin Pike</t>
+  </si>
+  <si>
+    <t>glass pike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass Pike </t>
+  </si>
+  <si>
+    <t>ebony pike</t>
+  </si>
+  <si>
+    <t>Ebony Pike</t>
+  </si>
+  <si>
+    <t>iron pike</t>
+  </si>
+  <si>
+    <t>Iron Pike</t>
+  </si>
+  <si>
+    <t>dwemer pike</t>
+  </si>
+  <si>
+    <t>Dwarven Pike</t>
+  </si>
+  <si>
+    <t>daedric pike</t>
+  </si>
+  <si>
+    <t>Daedric Pike</t>
+  </si>
+  <si>
+    <t>Pike Steel</t>
+  </si>
+  <si>
+    <t>Pike Chitin</t>
+  </si>
+  <si>
+    <t>Pike Glass</t>
+  </si>
+  <si>
+    <t>Pike Ebony</t>
+  </si>
+  <si>
+    <t>Pike Iron</t>
+  </si>
+  <si>
+    <t>Pike Dwarven</t>
+  </si>
+  <si>
+    <t>Pike Daedric</t>
   </si>
 </sst>
 </file>
@@ -31408,10 +31471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1334"/>
+  <dimension ref="A1:H1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1306" workbookViewId="0">
-      <selection activeCell="A1335" sqref="A1335"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
+      <selection activeCell="A1391" sqref="A1391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57750,7 +57813,7 @@
         <v>3181</v>
       </c>
       <c r="G1309">
-        <f t="shared" ref="G1309:G1334" si="12">LEN(F1309)</f>
+        <f t="shared" ref="G1309:G1372" si="12">LEN(F1309)</f>
         <v>18</v>
       </c>
     </row>
@@ -57965,7 +58028,7 @@
         <v>0</v>
       </c>
       <c r="H1318" s="1">
-        <f>VLOOKUP(B1318,B1:F1317,5,FALSE)</f>
+        <f>VLOOKUP(B1318,$B$1:$F$1317,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -57991,7 +58054,7 @@
         <v>0</v>
       </c>
       <c r="H1319" s="1">
-        <f t="shared" ref="H1319:H1334" si="13">VLOOKUP(B1319,B2:F1318,5,FALSE)</f>
+        <f t="shared" ref="H1319:H1381" si="13">VLOOKUP(B1319,$B$1:$F$1317,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -58096,7 +58159,7 @@
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="H1323" t="e">
+      <c r="H1323" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58124,7 +58187,7 @@
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="H1324" t="e">
+      <c r="H1324" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58152,7 +58215,7 @@
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="H1325" t="e">
+      <c r="H1325" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58180,7 +58243,7 @@
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
-      <c r="H1326" t="e">
+      <c r="H1326" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58208,7 +58271,7 @@
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="H1327" t="e">
+      <c r="H1327" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58236,7 +58299,7 @@
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="H1328" t="e">
+      <c r="H1328" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58264,7 +58327,7 @@
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="H1329" t="e">
+      <c r="H1329" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58292,7 +58355,7 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H1330" t="e">
+      <c r="H1330" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58320,7 +58383,7 @@
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="H1331" t="e">
+      <c r="H1331" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58348,7 +58411,7 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H1332" t="e">
+      <c r="H1332" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58376,7 +58439,7 @@
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="H1333" t="e">
+      <c r="H1333" s="3" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
@@ -58404,8 +58467,1478 @@
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="H1334" t="e">
+      <c r="H1334" s="3" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1335" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1335" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1335" s="1">
+        <v>40</v>
+      </c>
+      <c r="F1335" s="1"/>
+      <c r="G1335" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1335" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1336" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1336" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1336" s="1">
+        <v>80</v>
+      </c>
+      <c r="F1336" s="1"/>
+      <c r="G1336" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1336" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1337" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1337" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1337" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1337" s="1"/>
+      <c r="G1337" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1337" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1338" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1338" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1338" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1338" s="1"/>
+      <c r="G1338" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1338" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1339" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1339" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1339" s="1">
+        <v>40</v>
+      </c>
+      <c r="F1339" s="1"/>
+      <c r="G1339" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1339" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1340" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1340" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F1340" s="1"/>
+      <c r="G1340" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1340" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1341" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1341" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1341" s="1">
+        <v>600</v>
+      </c>
+      <c r="F1341" s="1"/>
+      <c r="G1341" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1341" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1342" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1342" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1342" s="1">
+        <v>300</v>
+      </c>
+      <c r="F1342" s="1"/>
+      <c r="G1342" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1342" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1343" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1343" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1343" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1343" s="1"/>
+      <c r="G1343" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1343" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1344" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1344" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F1344" s="1"/>
+      <c r="G1344" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1344" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1345" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1345" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1345" s="1">
+        <v>80</v>
+      </c>
+      <c r="F1345" s="1"/>
+      <c r="G1345" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1345" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1346" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1346" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1346" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F1346" s="1"/>
+      <c r="G1346" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1346" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1347" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1347" s="1">
+        <v>65</v>
+      </c>
+      <c r="F1347" s="1"/>
+      <c r="G1347" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1347" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1348" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1348" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1348" s="1">
+        <v>60</v>
+      </c>
+      <c r="F1348" s="1"/>
+      <c r="G1348" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1348" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1349" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1349" s="1">
+        <v>62</v>
+      </c>
+      <c r="F1349" s="1"/>
+      <c r="G1349" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1349" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1350" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1350" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1350" s="1">
+        <v>62</v>
+      </c>
+      <c r="F1350" s="1"/>
+      <c r="G1350" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1350" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1351" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1351" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1351" s="1">
+        <v>62</v>
+      </c>
+      <c r="F1351" s="1"/>
+      <c r="G1351" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1351" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1352" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1352" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1352" s="1">
+        <v>35</v>
+      </c>
+      <c r="F1352" s="1"/>
+      <c r="G1352" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1352" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1353" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1353" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1353" s="1">
+        <v>31</v>
+      </c>
+      <c r="F1353" s="1"/>
+      <c r="G1353" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1353" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1354" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1354" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1354" s="1">
+        <v>31</v>
+      </c>
+      <c r="F1354" s="1"/>
+      <c r="G1354" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1354" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1355" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1355" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1355" s="1">
+        <v>31</v>
+      </c>
+      <c r="F1355" s="1"/>
+      <c r="G1355" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1355" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1356" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1356" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1356" s="1">
+        <v>110</v>
+      </c>
+      <c r="F1356" s="1"/>
+      <c r="G1356" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1356" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1357" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1357" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1357" s="1">
+        <v>95</v>
+      </c>
+      <c r="F1357" s="1"/>
+      <c r="G1357" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1357" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1358" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1358" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1358" s="1">
+        <v>95</v>
+      </c>
+      <c r="F1358" s="1"/>
+      <c r="G1358" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1358" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1359" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1359" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1359" s="1">
+        <v>95</v>
+      </c>
+      <c r="F1359" s="1"/>
+      <c r="G1359" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1359" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1360" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1360" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1360" s="1">
+        <v>95</v>
+      </c>
+      <c r="F1360" s="1"/>
+      <c r="G1360" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1360" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1361" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1361" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1361" s="1">
+        <v>55</v>
+      </c>
+      <c r="F1361" s="1"/>
+      <c r="G1361" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1361" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1362" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1362" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1362" s="1">
+        <v>55</v>
+      </c>
+      <c r="F1362" s="1"/>
+      <c r="G1362" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1362" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1363" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1363" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1363" s="1">
+        <v>55</v>
+      </c>
+      <c r="F1363" s="1"/>
+      <c r="G1363" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1363" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1364" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1364" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1364" s="1">
+        <v>55</v>
+      </c>
+      <c r="F1364" s="1"/>
+      <c r="G1364" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1364" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1365" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1365" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1365" s="1">
+        <v>110</v>
+      </c>
+      <c r="F1365" s="1"/>
+      <c r="G1365" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1365" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1366" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1366" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1366" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1366" s="1">
+        <v>110</v>
+      </c>
+      <c r="F1366" s="1"/>
+      <c r="G1366" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1366" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1367" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1367" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1367" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1367" s="1">
+        <v>110</v>
+      </c>
+      <c r="F1367" s="1"/>
+      <c r="G1367" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1367" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1368" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1368" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1368" s="1">
+        <v>110</v>
+      </c>
+      <c r="F1368" s="1"/>
+      <c r="G1368" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1368" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1369" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1369" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1369" s="1">
+        <v>55</v>
+      </c>
+      <c r="F1369" s="1"/>
+      <c r="G1369" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1369" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1370" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1370" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1370" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1370" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1370" s="1"/>
+      <c r="G1370" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1370" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1371" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1371" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1371" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1371" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F1371" s="1"/>
+      <c r="G1371" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1371" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1372" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1372" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1372" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1372" s="1">
+        <v>165</v>
+      </c>
+      <c r="F1372" s="1"/>
+      <c r="G1372" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H1372" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1373" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1373" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D1373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1373" s="1">
+        <v>130000</v>
+      </c>
+      <c r="F1373" s="1"/>
+      <c r="G1373" s="1">
+        <f t="shared" ref="G1373:G1390" si="14">LEN(F1373)</f>
+        <v>0</v>
+      </c>
+      <c r="H1373" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1374" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1374" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D1374" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1374" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1374" s="1"/>
+      <c r="G1374" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1374" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1375" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1375" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1375" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1375" s="1">
+        <v>600</v>
+      </c>
+      <c r="F1375" s="1"/>
+      <c r="G1375" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1375" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1376" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1376" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1376" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1376" s="1">
+        <v>800</v>
+      </c>
+      <c r="F1376" s="1"/>
+      <c r="G1376" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1376" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1377" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1377" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1377" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1377" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1377" s="1"/>
+      <c r="G1377" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1377" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1378" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1378" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1378" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1378" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1378" s="1"/>
+      <c r="G1378" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1378" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1379" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1379" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D1379" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1379" s="1">
+        <v>900</v>
+      </c>
+      <c r="F1379" s="1"/>
+      <c r="G1379" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1379" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1380" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C1380" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1380" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1380" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F1380" s="1"/>
+      <c r="G1380" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1380" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1381" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1381" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1381" s="1">
+        <v>500</v>
+      </c>
+      <c r="F1381" s="1"/>
+      <c r="G1381" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1381" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1382" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1382" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1382" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F1382" s="1"/>
+      <c r="G1382" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1382" s="1">
+        <f t="shared" ref="H1382:H1390" si="15">VLOOKUP(B1382,$B$1:$F$1317,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1383" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1383" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1383" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1383" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F1383" s="1"/>
+      <c r="G1383" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H1383" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1384" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1384">
+        <v>90</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G1384">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H1384" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1385" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1385">
+        <v>18</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G1385">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="H1385" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1386" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1386">
+        <v>15000</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G1386">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H1386" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1387" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1387">
+        <v>12000</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G1387">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H1387" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1388" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1388">
+        <v>25</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G1388">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H1388" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1389" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1389">
+        <v>850</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1389">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="H1389" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1390">
+        <v>25000</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1390">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="H1390" s="3" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -58417,10 +59950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D965"/>
+  <dimension ref="A1:D972"/>
   <sheetViews>
-    <sheetView topLeftCell="A936" workbookViewId="0">
-      <selection activeCell="A954" sqref="A954:XFD954"/>
+    <sheetView topLeftCell="A950" workbookViewId="0">
+      <selection activeCell="A973" sqref="A973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72837,7 +74370,7 @@
         <v>3048</v>
       </c>
       <c r="D961" t="str">
-        <f t="shared" ref="D961:D965" si="15">"{ID="&amp;""""&amp;A961&amp;""""&amp;", name="&amp;""""&amp;C961&amp;""""&amp;"},"</f>
+        <f t="shared" ref="D961:D972" si="15">"{ID="&amp;""""&amp;A961&amp;""""&amp;", name="&amp;""""&amp;C961&amp;""""&amp;"},"</f>
         <v>{ID="wh_glass_bolt", name="Bolt Glass"},</v>
       </c>
     </row>
@@ -72899,6 +74432,111 @@
       <c r="D965" t="str">
         <f t="shared" si="15"/>
         <v>{ID="orcish trapper bolt", name="Bolt Uftum Trapper"},</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B966" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C966" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D966" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="steel pike", name="Pike Steel"},</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B967" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D967" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="chitin pike", name="Pike Chitin"},</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B968" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D968" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="glass pike", name="Pike Glass"},</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B969" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D969" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="ebony pike", name="Pike Ebony"},</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B970" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D970" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="iron pike", name="Pike Iron"},</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B971" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D971" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="dwemer pike", name="Pike Dwarven"},</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B972" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C972" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D972" t="str">
+        <f t="shared" si="15"/>
+        <v>{ID="daedric pike", name="Pike Daedric"},</v>
       </c>
     </row>
   </sheetData>
